--- a/data/georgia_census/kakheti/telavi/population_total.xlsx
+++ b/data/georgia_census/kakheti/telavi/population_total.xlsx
@@ -1365,13 +1365,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C2C7BB-8E32-4CDB-92C6-6EA7D7ACF03E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386B0C2-F066-4A71-9055-7A031AC3B867}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB1DD45-3AD8-4091-8F10-BACC38FE0553}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E20411-14B5-4191-9E6D-771EE5DAE518}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59162285-AA50-44E9-99EE-166E8A9EB067}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E206D5-597D-4BC0-8CE2-8A478694D24C}"/>
 </file>